--- a/en/application_framework/application_framework/web/getting_started/images/project_upload/images.xlsx
+++ b/en/application_framework/application_framework/web/getting_started/images/project_upload/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\en\application_framework\application_framework\web\getting_started\images\project_upload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC408CB7-83C3-4341-941F-52651365C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客登録" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,6 +115,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -117,52 +126,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>96352</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143062</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5558047-A840-4422-8DC1-3B086A787482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190500" y="609600"/>
-          <a:ext cx="10058400" cy="1381125"/>
-          <a:chOff x="190500" y="609600"/>
-          <a:chExt cx="10058400" cy="1381125"/>
+          <a:off x="200025" y="342900"/>
+          <a:ext cx="7897327" cy="1343212"/>
+          <a:chOff x="8201025" y="514350"/>
+          <a:chExt cx="7897327" cy="1343212"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPr id="13" name="図 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5FACF3-A46C-9C67-9B40-292D83C6DB7F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="5785"/>
-          <a:stretch/>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="190500" y="609600"/>
-            <a:ext cx="10058400" cy="1381125"/>
+            <a:off x="8201025" y="514350"/>
+            <a:ext cx="7897327" cy="1343212"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -171,12 +187,18 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="角丸四角形 2"/>
+          <xdr:cNvPr id="14" name="角丸四角形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46F56D9-5BCF-1DCC-FDB2-73F027EFF319}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1876425" y="638176"/>
+            <a:off x="11782425" y="628650"/>
             <a:ext cx="1257299" cy="304800"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -213,53 +235,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>141385</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>21314</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvPr id="26" name="グループ化 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A20E0A-00F9-41D6-B65D-FDB3F54CFAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="2314575"/>
-          <a:ext cx="10058400" cy="3417985"/>
-          <a:chOff x="152400" y="2314575"/>
-          <a:chExt cx="10058400" cy="3417985"/>
+          <a:off x="200025" y="1942710"/>
+          <a:ext cx="16223339" cy="2791215"/>
+          <a:chOff x="171450" y="4191000"/>
+          <a:chExt cx="16223339" cy="2791215"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="図 3"/>
+          <xdr:cNvPr id="27" name="図 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E999D1-EC51-FF1D-2F47-CE1DA732E3E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="152400" y="2314575"/>
-            <a:ext cx="10058400" cy="3417985"/>
+            <a:off x="171450" y="4191000"/>
+            <a:ext cx="16223339" cy="2791215"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -268,13 +296,19 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="角丸四角形 21"/>
+          <xdr:cNvPr id="28" name="角丸四角形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8112C424-154F-D62D-D651-AC47E7F0465B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4105275" y="4152900"/>
-            <a:ext cx="5543550" cy="514350"/>
+            <a:off x="3429000" y="5829300"/>
+            <a:ext cx="4838700" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -307,13 +341,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="角丸四角形 22"/>
+          <xdr:cNvPr id="29" name="角丸四角形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888C4016-EC32-A648-7463-8CD0D1C76E56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9391650" y="5191125"/>
-            <a:ext cx="800100" cy="447675"/>
+            <a:off x="15582900" y="6562724"/>
+            <a:ext cx="790575" cy="323851"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -349,53 +389,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>115847</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>11788</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28962</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099D8272-5396-4DF3-AC66-7990E3380EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="5991225"/>
-          <a:ext cx="10058400" cy="3659147"/>
-          <a:chOff x="152400" y="5991225"/>
-          <a:chExt cx="10058400" cy="3659147"/>
+          <a:off x="200025" y="5076825"/>
+          <a:ext cx="16213813" cy="2772162"/>
+          <a:chOff x="200025" y="4905375"/>
+          <a:chExt cx="16213813" cy="2772162"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
+          <xdr:cNvPr id="31" name="図 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179D9EDD-8780-6458-0B14-6B2933881CA0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="152400" y="5991225"/>
-            <a:ext cx="10058400" cy="3659147"/>
+            <a:off x="200025" y="4905375"/>
+            <a:ext cx="16213813" cy="2772162"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -404,13 +450,64 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="角丸四角形 24"/>
+          <xdr:cNvPr id="32" name="角丸四角形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10020786-9B77-9FAD-807E-A0E0F80F7D3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="190499" y="6534150"/>
-            <a:ext cx="1952625" cy="390525"/>
+            <a:off x="3457575" y="6543675"/>
+            <a:ext cx="4838700" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="角丸四角形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA81136-E74A-F410-416C-D5254A453715}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15611475" y="7277099"/>
+            <a:ext cx="790575" cy="323851"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -448,9 +545,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,7 +585,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -560,7 +657,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -733,12 +830,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C13:X20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="BF32" sqref="BF32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -943,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
@@ -959,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
